--- a/wash_P/ARG.xlsx
+++ b/wash_P/ARG.xlsx
@@ -40287,7 +40287,7 @@
         <v>0</v>
       </c>
       <c r="CB13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC13" t="n">
         <v>0</v>
@@ -40329,7 +40329,7 @@
         <v>0</v>
       </c>
       <c r="CP13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ13" t="n">
         <v>0</v>
@@ -47044,7 +47044,7 @@
         <v>0</v>
       </c>
       <c r="IM15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IN15" t="n">
         <v>0</v>
@@ -50103,7 +50103,7 @@
         <v>0</v>
       </c>
       <c r="HP16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ16" t="n">
         <v>0</v>
@@ -53432,10 +53432,10 @@
         <v>0</v>
       </c>
       <c r="KE17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KF17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KG17" t="n">
         <v>0</v>
@@ -56560,10 +56560,10 @@
         <v>0</v>
       </c>
       <c r="KE18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KF18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KG18" t="n">
         <v>0</v>
@@ -84790,7 +84790,7 @@
         <v>0</v>
       </c>
       <c r="LE27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LF27" t="n">
         <v>0</v>
@@ -90593,7 +90593,7 @@
         <v>0</v>
       </c>
       <c r="FJ29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FK29" t="n">
         <v>0</v>
@@ -92573,7 +92573,7 @@
         <v>0</v>
       </c>
       <c r="AET29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AEU29" t="n">
         <v>0</v>
